--- a/src/assets/fxsj_mb/fxtb_f172_sqppxm.xlsx
+++ b/src/assets/fxsj_mb/fxtb_f172_sqppxm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>年度</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>项目覆盖人数</t>
+  </si>
+  <si>
+    <t>2020</t>
   </si>
   <si>
     <t>31030</t>
@@ -51,9 +54,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -86,46 +89,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +181,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -155,16 +196,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,44 +225,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -232,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,35 +446,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,8 +486,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,30 +541,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,145 +549,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,7 +1023,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1049,37 +1052,37 @@
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:5">
-      <c r="A2" s="2">
-        <v>2018</v>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:5">
-      <c r="A3" s="2">
-        <v>2018</v>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/fxsj_mb/fxtb_f172_sqppxm.xlsx
+++ b/src/assets/fxsj_mb/fxtb_f172_sqppxm.xlsx
@@ -25,7 +25,7 @@
     <t>分校名称</t>
   </si>
   <si>
-    <t>项目名称</t>
+    <t>品牌项目名称</t>
   </si>
   <si>
     <t>项目覆盖人数</t>
@@ -54,9 +54,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -89,13 +89,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -105,6 +98,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -113,30 +113,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,29 +124,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,13 +135,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -197,7 +144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,7 +152,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +179,52 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,49 +235,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,133 +403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,41 +469,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -527,6 +492,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -549,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,133 +561,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
